--- a/biology/Médecine/ROSA/ROSA.xlsx
+++ b/biology/Médecine/ROSA/ROSA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ROSA est la technologie médicale robotisée de la société Medtech. Dédiés aux chirurgies mini-invasives sur le système nerveux central, les robots ROSA assistent les professionnels de santé en apportant davantage de précision aux procédures chirurgicales et en réduisant le temps opératoire[1],[2].
-En juillet 2014, le système est utilisé dans 23 centres hospitaliers en Europe, en Amérique du Nord, en Asie et au Moyen-Orient[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROSA est la technologie médicale robotisée de la société Medtech. Dédiés aux chirurgies mini-invasives sur le système nerveux central, les robots ROSA assistent les professionnels de santé en apportant davantage de précision aux procédures chirurgicales et en réduisant le temps opératoire,.
+En juillet 2014, le système est utilisé dans 23 centres hospitaliers en Europe, en Amérique du Nord, en Asie et au Moyen-Orient.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>ROSA Brain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier robot ROSA de Medtech, ROSA Brain, dédié à la neurochirurgie, est conçu en 2009. Il reçoit les homologations CE et FDA respectivement en 2009 et en 2011, autorisant sa commercialisation pour un usage clinique en Europe et aux États-Unis.
-Le dispositif ROSA Brain présente les caractéristiques techniques suivantes[4] :
+Le dispositif ROSA Brain présente les caractéristiques techniques suivantes :
 bras robotisé permettant une grande liberté dans le choix des trajectoires ;
 capacités haptiques qui confèrent au neurochirurgien la possibilité de guider les instruments manuellement dans les limites établies lors de la planification ;
 système de registration du patient non invasif et sans contact, breveté par Medtech.
 ROSA Brain assiste les professionnels de santé dans le cadre d’interventions chirurgicales neurologiques à crâne ouvert, de biopsies, d’implantations d’électrodes pour des procédures de stimulation du cortex cérébral, de stimulation cérébrale profonde, etc.
-Les pathologies concernées par l’utilisation de ROSA Brain sont entre autres l’épilepsie, la maladie de Parkinson, la dystonie généralisée, le cavernome, l’hydrocéphalie[5]. ROSA Brain a été utilisé dans plus de 1 100 opérations[6]. Le robot a fait l’objet d’un grand nombre de publications scientifiques[7],[8],[9],[10].
+Les pathologies concernées par l’utilisation de ROSA Brain sont entre autres l’épilepsie, la maladie de Parkinson, la dystonie généralisée, le cavernome, l’hydrocéphalie. ROSA Brain a été utilisé dans plus de 1 100 opérations. Le robot a fait l’objet d’un grand nombre de publications scientifiques.
 </t>
         </is>
       </c>
@@ -549,11 +563,13 @@
           <t>ROSA Spine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis fin 2011, avec le soutien de la Région Languedoc-Roussillon et d'Oséo, Medtech développe le robot ROSA Spine, dédié aux procédures chirurgicales mini-invasives sur le rachis.  
-En juillet 2014, ROSA Spine a obtenu le marquage CE, autorisant sa commercialisation en Europe[11].  
-En janvier 2016, Medtech reçoit l'homologation FDA pour le robot ROSA Spine, permettant son lancement commercial sur le marché américain[12].   
+En juillet 2014, ROSA Spine a obtenu le marquage CE, autorisant sa commercialisation en Europe.  
+En janvier 2016, Medtech reçoit l'homologation FDA pour le robot ROSA Spine, permettant son lancement commercial sur le marché américain.   
 </t>
         </is>
       </c>
